--- a/results/summary_node_classification_GIN_borf.csv.xlsx
+++ b/results/summary_node_classification_GIN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2623947368421053</v>
+        <v>0.2480855263157894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0018576151571362</v>
+        <v>0.003331733543848</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2634473684210526</v>
+        <v>0.2485657894736841</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0014594377166407</v>
+        <v>0.0038067670101087</v>
       </c>
     </row>
     <row r="4">
@@ -510,15 +510,75 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2629342105263157</v>
+        <v>0.2490723684210526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0014787530308729</v>
+        <v>0.0041466409577737</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2466052631578947</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00427036914465</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2494868421052631</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.004295264899167</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2499605263157894</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0033245925332986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2478684210526316</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0034753345361999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2500921052631579</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0036048318989088</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GIN_borf.csv.xlsx
+++ b/results/summary_node_classification_GIN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,16 @@
           <t>ci</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>borf_batch_add</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>borf_batch_remove</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -491,6 +501,12 @@
       <c r="D2" t="n">
         <v>0.003331733543848</v>
       </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -503,6 +519,12 @@
       <c r="D3" t="n">
         <v>0.0038067670101087</v>
       </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -515,6 +537,12 @@
       <c r="D4" t="n">
         <v>0.0041466409577737</v>
       </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -527,6 +555,12 @@
       <c r="D5" t="n">
         <v>0.00427036914465</v>
       </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -539,6 +573,12 @@
       <c r="D6" t="n">
         <v>0.004295264899167</v>
       </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -551,6 +591,12 @@
       <c r="D7" t="n">
         <v>0.0033245925332986</v>
       </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -563,6 +609,12 @@
       <c r="D8" t="n">
         <v>0.0034753345361999</v>
       </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -574,6 +626,12 @@
       </c>
       <c r="D9" t="n">
         <v>0.0036048318989088</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/results/summary_node_classification_GIN_borf.csv.xlsx
+++ b/results/summary_node_classification_GIN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,9 +634,158 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>pubmed</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.788788032454361</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0168964314626237</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8000228194726167</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0137483301455155</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8008772819472615</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0130148443781359</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8051495943204867</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0161144434099797</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7973073022312375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0160278743183429</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7935725152129818</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0170300425769944</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7992063894523325</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0157423307423034</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7878853955375255</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0195814171993413</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GIN_borf.csv.xlsx
+++ b/results/summary_node_classification_GIN_borf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,16 +698,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8051495943204867</v>
+        <v>0.8341176470588235</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0161144434099797</v>
+        <v>0.003746157893903</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -716,13 +716,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7973073022312375</v>
+        <v>0.8340010141987829</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0160278743183429</v>
+        <v>0.0048841727454397</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -734,16 +734,16 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7935725152129818</v>
+        <v>0.836531440162272</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0170300425769944</v>
+        <v>0.0030176042531548</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -752,13 +752,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7992063894523325</v>
+        <v>0.8366049695740365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0157423307423034</v>
+        <v>0.0030240667597548</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -770,22 +770,81 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7878853955375255</v>
+        <v>0.835578093306288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0195814171993413</v>
+        <v>0.0038328897429087</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>squirrel</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4123919308357349</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0064023084273388</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4104707012487992</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0061119564456741</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4115465898174832</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0060885205454204</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
